--- a/A garder/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/A garder/Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BTS\2023\Circulaires nationales\SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\devoir\Portfolio\A garder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F76F49-8FFE-4F45-AC9F-B47422449417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -91,9 +92,6 @@
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -106,9 +104,6 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -118,16 +113,22 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
-    <t>SESSION 2023</t>
+    <t>X SLAM</t>
+  </si>
+  <si>
+    <t>NOM et prénom : Rosa Axel</t>
+  </si>
+  <si>
+    <t>SESSION 2026</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://roxas004.github.io/Portfolio/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
@@ -738,7 +739,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,6 +831,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -865,6 +883,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1040,14 +1075,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1104,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="26"/>
     </row>
@@ -1087,14 +1122,14 @@
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
       <c r="F3" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="34"/>
@@ -1117,12 +1152,12 @@
         <v>16</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -1134,10 +1169,10 @@
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1217,7 +1252,7 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -1714,7 +1749,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -2076,7 +2111,7 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
